--- a/VerveStacks_JPN/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_JPN/SuppXLS/Scen_Base_VS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A893A7B6-C830-4A66-8AED-38B91D66FDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FB331A-DED1-4053-8328-6E833D957F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12683" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -65,12 +65,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{611EBA31-8D3D-48AF-B590-BE94B249D2E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03-08-2025
+CO2 transport and storage cost
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="80">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -235,6 +261,24 @@
   </si>
   <si>
     <t>Geothermal*</t>
+  </si>
+  <si>
+    <t>COM_AGG</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>co2net</t>
+  </si>
+  <si>
+    <t>co2captured</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>flo_cost</t>
   </si>
   <si>
     <t>EMBER Utilization Factors</t>
@@ -392,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -401,6 +445,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -741,16 +786,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AJ40"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.59765625" customWidth="1"/>
     <col min="5" max="5" width="9.53125" customWidth="1"/>
     <col min="6" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
@@ -779,7 +824,7 @@
     <col min="36" max="36" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="AA1">
         <v>1.1000000000000001</v>
       </c>
@@ -787,29 +832,29 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="F2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="F2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G3" s="4">
         <v>0.89556498330266465</v>
@@ -827,7 +872,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -853,7 +901,7 @@
         <v>1.0249718654196904</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -880,7 +928,10 @@
         <v>0.82445436789536819</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -888,11 +939,11 @@
         <v>7</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" ref="D6:D7" si="0">IFERROR(VLOOKUP(B6,$F$3:$J$11,5,FALSE),"")</f>
+        <f>IFERROR(MIN(VLOOKUP(B6,$F$3:$J$11,5,FALSE),$A$6),"")</f>
         <v>0.13784309574929191</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -909,7 +960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -917,7 +968,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D7" si="0">IFERROR(VLOOKUP(B7,$F$3:$J$11,5,FALSE),"")</f>
         <v>0.25212186273942605</v>
       </c>
       <c r="F7" t="s">
@@ -981,7 +1032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -1059,7 +1110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
       <c r="F9" t="s">
         <v>23</v>
       </c>
@@ -1127,7 +1178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F10" t="s">
         <v>9</v>
       </c>
@@ -1144,7 +1195,7 @@
         <v>0.13784309574929191</v>
       </c>
     </row>
-    <row r="11" spans="2:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F11" t="s">
         <v>12</v>
       </c>
@@ -1161,12 +1212,12 @@
         <v>0.25212186273942605</v>
       </c>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -1177,7 +1228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -1192,7 +1243,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
       <c r="L16" t="s">
         <v>31</v>
       </c>
@@ -1233,6 +1284,9 @@
       <c r="E21" t="s">
         <v>28</v>
       </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
       <c r="L21" t="s">
         <v>38</v>
       </c>
@@ -1248,10 +1302,10 @@
         <v>40</v>
       </c>
       <c r="E22">
-        <f>G22*3.6</f>
+        <f>I22*3.6</f>
         <v>338.40000000000003</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>94</v>
       </c>
       <c r="L22" t="s">
@@ -1269,10 +1323,10 @@
         <v>40</v>
       </c>
       <c r="E23">
-        <f>G23*3.6</f>
+        <f>I23*3.6</f>
         <v>198</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>55</v>
       </c>
       <c r="L23" t="s">
@@ -1290,10 +1344,10 @@
         <v>40</v>
       </c>
       <c r="E24">
-        <f>G24*3.6</f>
+        <f>I24*3.6</f>
         <v>252</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>70</v>
       </c>
       <c r="L24" t="s">
@@ -1301,16 +1355,53 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
       <c r="L25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
       <c r="L26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27">
+        <v>0.03</v>
+      </c>
+      <c r="F27" t="str">
+        <f>C27</f>
+        <v>co2captured</v>
+      </c>
       <c r="L27" s="2" t="s">
         <v>46</v>
       </c>
@@ -1416,90 +1507,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
-        <v>55</v>
+      <c r="A1" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="8">
         <v>2000</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>2001</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>2002</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>2003</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>2004</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>2005</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>2006</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <v>2007</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="8">
         <v>2008</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="8">
         <v>2009</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="8">
         <v>2010</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="8">
         <v>2011</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="8">
         <v>2012</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="8">
         <v>2013</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="8">
         <v>2014</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="8">
         <v>2015</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="8">
         <v>2016</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="8">
         <v>2017</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="8">
         <v>2018</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="8">
         <v>2019</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="8">
         <v>2020</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W2" s="8">
         <v>2021</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="8">
         <v>2022</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y2" s="8">
         <v>2023</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4">
         <v>4.9703813402443533</v>
@@ -2114,87 +2205,87 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="6" t="s">
-        <v>58</v>
+      <c r="A15" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="7">
+      <c r="A16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="8">
         <v>2000</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>2001</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="8">
         <v>2002</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="8">
         <v>2003</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <v>2004</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="8">
         <v>2005</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="8">
         <v>2006</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="8">
         <v>2007</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="8">
         <v>2008</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="8">
         <v>2009</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="8">
         <v>2010</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="8">
         <v>2011</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="8">
         <v>2012</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="8">
         <v>2013</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="8">
         <v>2014</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="8">
         <v>2015</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="8">
         <v>2016</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="8">
         <v>2017</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="8">
         <v>2018</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="8">
         <v>2019</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="8">
         <v>2020</v>
       </c>
-      <c r="W16" s="7">
+      <c r="W16" s="8">
         <v>2021</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="8">
         <v>2022</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B17" s="4">
         <v>1.3128573649570729</v>
@@ -2416,7 +2507,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B20" s="4">
         <v>0.71705775013493023</v>
@@ -2857,238 +2948,238 @@
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="6" t="s">
-        <v>60</v>
+      <c r="A30" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A31" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="7">
+      <c r="A31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="8">
         <v>2000</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="8">
         <v>2001</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="8">
         <v>2002</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="8">
         <v>2003</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="8">
         <v>2004</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="8">
         <v>2005</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="8">
         <v>2006</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="8">
         <v>2007</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="8">
         <v>2008</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="8">
         <v>2009</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="8">
         <v>2010</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="8">
         <v>2011</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="8">
         <v>2012</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="8">
         <v>2013</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="8">
         <v>2014</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="Q31" s="8">
         <v>2015</v>
       </c>
-      <c r="R31" s="7">
+      <c r="R31" s="8">
         <v>2016</v>
       </c>
-      <c r="S31" s="7">
+      <c r="S31" s="8">
         <v>2017</v>
       </c>
-      <c r="T31" s="7">
+      <c r="T31" s="8">
         <v>2018</v>
       </c>
-      <c r="U31" s="7">
+      <c r="U31" s="8">
         <v>2019</v>
       </c>
-      <c r="V31" s="7">
+      <c r="V31" s="8">
         <v>2020</v>
       </c>
-      <c r="W31" s="7">
+      <c r="W31" s="8">
         <v>2021</v>
       </c>
-      <c r="X31" s="7">
+      <c r="X31" s="8">
         <v>2022</v>
       </c>
-      <c r="Y31" s="7">
+      <c r="Y31" s="8">
         <v>2023</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A32" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="8">
+      <c r="A32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="9">
         <v>1099.67</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="9">
         <v>1083.1399999999999</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="9">
         <v>1103.0700000000002</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="9">
         <v>1092.5899999999999</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="9">
         <v>1121.19</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="9">
         <v>1153.07</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="9">
         <v>1164.3499999999999</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="9">
         <v>1180.1100000000001</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="9">
         <v>1183.7</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="9">
         <v>1114.02</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="9">
         <v>1156.04</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="9">
         <v>1104.2</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="9">
         <v>1106.8800000000001</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O32" s="9">
         <v>1087.76</v>
       </c>
-      <c r="P32" s="8">
+      <c r="P32" s="9">
         <v>1062.72</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="Q32" s="9">
         <v>1030.1199999999999</v>
       </c>
-      <c r="R32" s="8">
+      <c r="R32" s="9">
         <v>1063.7</v>
       </c>
-      <c r="S32" s="8">
+      <c r="S32" s="9">
         <v>1076.8600000000001</v>
       </c>
-      <c r="T32" s="8">
+      <c r="T32" s="9">
         <v>1082.93</v>
       </c>
-      <c r="U32" s="8">
+      <c r="U32" s="9">
         <v>1047.4000000000001</v>
       </c>
-      <c r="V32" s="8">
+      <c r="V32" s="9">
         <v>1011.03</v>
       </c>
-      <c r="W32" s="8">
+      <c r="W32" s="9">
         <v>1034.67</v>
       </c>
-      <c r="X32" s="8">
+      <c r="X32" s="9">
         <v>1040.57</v>
       </c>
-      <c r="Y32" s="8">
+      <c r="Y32" s="9">
         <v>1013.2600000000001</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="9">
+        <v>63</v>
+      </c>
+      <c r="B33" s="10">
         <v>16.11</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="10">
         <v>16.03</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="10">
         <v>16.940000000000001</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="10">
         <v>17.88</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="10">
         <v>18.05</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="10">
         <v>21.69</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="10">
         <v>21.53</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="10">
         <v>22.2</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="10">
         <v>21.29</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="10">
         <v>20.329999999999998</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="10">
         <v>21.83</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="10">
         <v>21.11</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33" s="10">
         <v>22.13</v>
       </c>
-      <c r="O33" s="9">
+      <c r="O33" s="10">
         <v>23.18</v>
       </c>
-      <c r="P33" s="9">
+      <c r="P33" s="10">
         <v>23.63</v>
       </c>
-      <c r="Q33" s="9">
+      <c r="Q33" s="10">
         <v>28.49</v>
       </c>
-      <c r="R33" s="9">
+      <c r="R33" s="10">
         <v>23.67</v>
       </c>
-      <c r="S33" s="9">
+      <c r="S33" s="10">
         <v>23.8</v>
       </c>
-      <c r="T33" s="9">
+      <c r="T33" s="10">
         <v>25.75</v>
       </c>
-      <c r="U33" s="9">
+      <c r="U33" s="10">
         <v>27.6</v>
       </c>
-      <c r="V33" s="9">
+      <c r="V33" s="10">
         <v>30.37</v>
       </c>
-      <c r="W33" s="9">
+      <c r="W33" s="10">
         <v>34.79</v>
       </c>
-      <c r="X33" s="9">
+      <c r="X33" s="10">
         <v>37.83</v>
       </c>
-      <c r="Y33" s="9">
+      <c r="Y33" s="10">
         <v>42.05</v>
       </c>
     </row>
@@ -3096,76 +3187,76 @@
       <c r="A34" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="10">
         <v>238.24</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="10">
         <v>253.91</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="10">
         <v>264.42</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="10">
         <v>292.06</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="10">
         <v>295.39</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="10">
         <v>319.2</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="10">
         <v>311.33999999999997</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="10">
         <v>317.31</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="10">
         <v>333.7</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="10">
         <v>312.08</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="10">
         <v>316.85000000000002</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="10">
         <v>285.07</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N34" s="10">
         <v>334.3</v>
       </c>
-      <c r="O34" s="9">
+      <c r="O34" s="10">
         <v>362.55</v>
       </c>
-      <c r="P34" s="9">
+      <c r="P34" s="10">
         <v>355.6</v>
       </c>
-      <c r="Q34" s="9">
+      <c r="Q34" s="10">
         <v>349.64</v>
       </c>
-      <c r="R34" s="9">
+      <c r="R34" s="10">
         <v>338.59</v>
       </c>
-      <c r="S34" s="9">
+      <c r="S34" s="10">
         <v>363.47</v>
       </c>
-      <c r="T34" s="9">
+      <c r="T34" s="10">
         <v>360.66</v>
       </c>
-      <c r="U34" s="9">
+      <c r="U34" s="10">
         <v>350.77</v>
       </c>
-      <c r="V34" s="9">
+      <c r="V34" s="10">
         <v>340.25</v>
       </c>
-      <c r="W34" s="9">
+      <c r="W34" s="10">
         <v>348.26</v>
       </c>
-      <c r="X34" s="9">
+      <c r="X34" s="10">
         <v>350.99</v>
       </c>
-      <c r="Y34" s="9">
+      <c r="Y34" s="10">
         <v>329.1</v>
       </c>
     </row>
@@ -3173,76 +3264,76 @@
       <c r="A35" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="10">
         <v>258.5</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="10">
         <v>256.52</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="10">
         <v>252.76</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="10">
         <v>273.10000000000002</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="10">
         <v>257.86</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="10">
         <v>253.09</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="10">
         <v>280.04000000000002</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="10">
         <v>296.85000000000002</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="10">
         <v>324.83</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="10">
         <v>324.72000000000003</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="10">
         <v>326.08999999999997</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M35" s="10">
         <v>379.83</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N35" s="10">
         <v>435.49</v>
       </c>
-      <c r="O35" s="9">
+      <c r="O35" s="10">
         <v>423.58</v>
       </c>
-      <c r="P35" s="9">
+      <c r="P35" s="10">
         <v>450.88</v>
       </c>
-      <c r="Q35" s="9">
+      <c r="Q35" s="10">
         <v>417.5</v>
       </c>
-      <c r="R35" s="9">
+      <c r="R35" s="10">
         <v>458.43</v>
       </c>
-      <c r="S35" s="9">
+      <c r="S35" s="10">
         <v>464.13</v>
       </c>
-      <c r="T35" s="9">
+      <c r="T35" s="10">
         <v>445.61</v>
       </c>
-      <c r="U35" s="9">
+      <c r="U35" s="10">
         <v>416.95</v>
       </c>
-      <c r="V35" s="9">
+      <c r="V35" s="10">
         <v>409.44</v>
       </c>
-      <c r="W35" s="9">
+      <c r="W35" s="10">
         <v>385.78</v>
       </c>
-      <c r="X35" s="9">
+      <c r="X35" s="10">
         <v>378.84</v>
       </c>
-      <c r="Y35" s="9">
+      <c r="Y35" s="10">
         <v>347.02</v>
       </c>
     </row>
@@ -3250,76 +3341,76 @@
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="10">
         <v>84.47</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="10">
         <v>81.540000000000006</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="10">
         <v>80.599999999999994</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="10">
         <v>92.47</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="10">
         <v>91.67</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="10">
         <v>77.56</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="10">
         <v>88.81</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="10">
         <v>74.510000000000005</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="10">
         <v>75.16</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="10">
         <v>70.47</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="10">
         <v>88.5</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="10">
         <v>82.49</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="10">
         <v>77.099999999999994</v>
       </c>
-      <c r="O36" s="9">
+      <c r="O36" s="10">
         <v>79.33</v>
       </c>
-      <c r="P36" s="9">
+      <c r="P36" s="10">
         <v>81.709999999999994</v>
       </c>
-      <c r="Q36" s="9">
+      <c r="Q36" s="10">
         <v>85.77</v>
       </c>
-      <c r="R36" s="9">
+      <c r="R36" s="10">
         <v>79.430000000000007</v>
       </c>
-      <c r="S36" s="9">
+      <c r="S36" s="10">
         <v>79.239999999999995</v>
       </c>
-      <c r="T36" s="9">
+      <c r="T36" s="10">
         <v>81</v>
       </c>
-      <c r="U36" s="9">
+      <c r="U36" s="10">
         <v>73.92</v>
       </c>
-      <c r="V36" s="9">
+      <c r="V36" s="10">
         <v>78.33</v>
       </c>
-      <c r="W36" s="9">
+      <c r="W36" s="10">
         <v>79.63</v>
       </c>
-      <c r="X36" s="9">
+      <c r="X36" s="10">
         <v>74.87</v>
       </c>
-      <c r="Y36" s="9">
+      <c r="Y36" s="10">
         <v>74.5</v>
       </c>
     </row>
@@ -3327,76 +3418,76 @@
       <c r="A37" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="10">
         <v>319.12</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="10">
         <v>320.54000000000002</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="10">
         <v>314.26</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="10">
         <v>230.08</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="10">
         <v>285.87</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="10">
         <v>293.04000000000002</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="10">
         <v>304.29000000000002</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="10">
         <v>279.01</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="10">
         <v>251.74</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="10">
         <v>274.64999999999998</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="10">
         <v>292.36</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M37" s="10">
         <v>162.93</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N37" s="10">
         <v>17.989999999999998</v>
       </c>
-      <c r="O37" s="9">
+      <c r="O37" s="10">
         <v>14.6</v>
       </c>
-      <c r="P37" s="9">
+      <c r="P37" s="10">
         <v>0</v>
       </c>
-      <c r="Q37" s="9">
+      <c r="Q37" s="10">
         <v>4.5199999999999996</v>
       </c>
-      <c r="R37" s="9">
+      <c r="R37" s="10">
         <v>17.68</v>
       </c>
-      <c r="S37" s="9">
+      <c r="S37" s="10">
         <v>29.07</v>
       </c>
-      <c r="T37" s="9">
+      <c r="T37" s="10">
         <v>49.11</v>
       </c>
-      <c r="U37" s="9">
+      <c r="U37" s="10">
         <v>65.64</v>
       </c>
-      <c r="V37" s="9">
+      <c r="V37" s="10">
         <v>43</v>
       </c>
-      <c r="W37" s="9">
+      <c r="W37" s="10">
         <v>61.22</v>
       </c>
-      <c r="X37" s="9">
+      <c r="X37" s="10">
         <v>51.77</v>
       </c>
-      <c r="Y37" s="9">
+      <c r="Y37" s="10">
         <v>77.459999999999994</v>
       </c>
     </row>
@@ -3404,76 +3495,76 @@
       <c r="A38" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="10">
         <v>182.78</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="10">
         <v>153.85</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="10">
         <v>172.99</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="10">
         <v>185.22</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="10">
         <v>169.64</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="10">
         <v>184.95</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="10">
         <v>154.21</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="10">
         <v>185.18</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="10">
         <v>171.45</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="10">
         <v>105.29</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="10">
         <v>102.5</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="10">
         <v>162.87</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N38" s="10">
         <v>207.77</v>
       </c>
-      <c r="O38" s="9">
+      <c r="O38" s="10">
         <v>166.48</v>
       </c>
-      <c r="P38" s="9">
+      <c r="P38" s="10">
         <v>122.34</v>
       </c>
-      <c r="Q38" s="9">
+      <c r="Q38" s="10">
         <v>104.44</v>
       </c>
-      <c r="R38" s="9">
+      <c r="R38" s="10">
         <v>97.23</v>
       </c>
-      <c r="S38" s="9">
+      <c r="S38" s="10">
         <v>56.89</v>
       </c>
-      <c r="T38" s="9">
+      <c r="T38" s="10">
         <v>52.21</v>
       </c>
-      <c r="U38" s="9">
+      <c r="U38" s="10">
         <v>37.630000000000003</v>
       </c>
-      <c r="V38" s="9">
+      <c r="V38" s="10">
         <v>25.31</v>
       </c>
-      <c r="W38" s="9">
+      <c r="W38" s="10">
         <v>31.27</v>
       </c>
-      <c r="X38" s="9">
+      <c r="X38" s="10">
         <v>45.78</v>
       </c>
-      <c r="Y38" s="9">
+      <c r="Y38" s="10">
         <v>36.130000000000003</v>
       </c>
     </row>
@@ -3481,76 +3572,76 @@
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="10">
         <v>0.34</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="10">
         <v>0.5</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="10">
         <v>0.69</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="10">
         <v>0.95</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="10">
         <v>1.27</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="10">
         <v>1.63</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="10">
         <v>2</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="10">
         <v>2.31</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="10">
         <v>2.59</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K39" s="10">
         <v>3.05</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="10">
         <v>3.98</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M39" s="10">
         <v>5.44</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N39" s="10">
         <v>7.37</v>
       </c>
-      <c r="O39" s="9">
+      <c r="O39" s="10">
         <v>12.91</v>
       </c>
-      <c r="P39" s="9">
+      <c r="P39" s="10">
         <v>23.55</v>
       </c>
-      <c r="Q39" s="9">
+      <c r="Q39" s="10">
         <v>34.54</v>
       </c>
-      <c r="R39" s="9">
+      <c r="R39" s="10">
         <v>43.33</v>
       </c>
-      <c r="S39" s="9">
+      <c r="S39" s="10">
         <v>54.04</v>
       </c>
-      <c r="T39" s="9">
+      <c r="T39" s="10">
         <v>61.22</v>
       </c>
-      <c r="U39" s="9">
+      <c r="U39" s="10">
         <v>67.430000000000007</v>
       </c>
-      <c r="V39" s="9">
+      <c r="V39" s="10">
         <v>75.92</v>
       </c>
-      <c r="W39" s="9">
+      <c r="W39" s="10">
         <v>84.18</v>
       </c>
-      <c r="X39" s="9">
+      <c r="X39" s="10">
         <v>91.07</v>
       </c>
-      <c r="Y39" s="9">
+      <c r="Y39" s="10">
         <v>96.99</v>
       </c>
     </row>
@@ -3558,303 +3649,303 @@
       <c r="A40" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="10">
         <v>0.11</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="10">
         <v>0.25</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="10">
         <v>0.41</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="10">
         <v>0.83</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="10">
         <v>1.44</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="10">
         <v>1.91</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="10">
         <v>2.13</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="10">
         <v>2.74</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="10">
         <v>2.94</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="10">
         <v>3.43</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="10">
         <v>3.93</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="10">
         <v>4.46</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N40" s="10">
         <v>4.7300000000000004</v>
       </c>
-      <c r="O40" s="9">
+      <c r="O40" s="10">
         <v>5.13</v>
       </c>
-      <c r="P40" s="9">
+      <c r="P40" s="10">
         <v>5.01</v>
       </c>
-      <c r="Q40" s="9">
+      <c r="Q40" s="10">
         <v>5.22</v>
       </c>
-      <c r="R40" s="9">
+      <c r="R40" s="10">
         <v>5.34</v>
       </c>
-      <c r="S40" s="9">
+      <c r="S40" s="10">
         <v>6.22</v>
       </c>
-      <c r="T40" s="9">
+      <c r="T40" s="10">
         <v>7.37</v>
       </c>
-      <c r="U40" s="9">
+      <c r="U40" s="10">
         <v>7.46</v>
       </c>
-      <c r="V40" s="9">
+      <c r="V40" s="10">
         <v>8.41</v>
       </c>
-      <c r="W40" s="9">
+      <c r="W40" s="10">
         <v>9.5399999999999991</v>
       </c>
-      <c r="X40" s="9">
+      <c r="X40" s="10">
         <v>9.42</v>
       </c>
-      <c r="Y40" s="9">
+      <c r="Y40" s="10">
         <v>10.01</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A45" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="7">
+      <c r="B45" s="8">
         <v>2000</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="8">
         <v>2001</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="8">
         <v>2002</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="8">
         <v>2003</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="8">
         <v>2004</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="8">
         <v>2005</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="8">
         <v>2006</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="8">
         <v>2007</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="8">
         <v>2008</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="8">
         <v>2009</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="8">
         <v>2010</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="8">
         <v>2011</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="8">
         <v>2012</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O45" s="8">
         <v>2013</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="8">
         <v>2014</v>
       </c>
-      <c r="Q45" s="7">
+      <c r="Q45" s="8">
         <v>2015</v>
       </c>
-      <c r="R45" s="7">
+      <c r="R45" s="8">
         <v>2016</v>
       </c>
-      <c r="S45" s="7">
+      <c r="S45" s="8">
         <v>2017</v>
       </c>
-      <c r="T45" s="7">
+      <c r="T45" s="8">
         <v>2018</v>
       </c>
-      <c r="U45" s="7">
+      <c r="U45" s="8">
         <v>2019</v>
       </c>
-      <c r="V45" s="7">
+      <c r="V45" s="8">
         <v>2020</v>
       </c>
-      <c r="W45" s="7">
+      <c r="W45" s="8">
         <v>2021</v>
       </c>
-      <c r="X45" s="7">
+      <c r="X45" s="8">
         <v>2022</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A46" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="8">
+      <c r="A46" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="9">
         <v>1067.8119999999999</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="9">
         <v>1050.222</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="9">
         <v>1068.0609999999999</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="9">
         <v>1058.8780000000002</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="9">
         <v>1088.4599999999998</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="9">
         <v>1108.836</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="9">
         <v>1112.6769999999999</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="9">
         <v>1141.8530000000001</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="9">
         <v>1108.248</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46" s="9">
         <v>1090.473</v>
       </c>
-      <c r="L46" s="8">
+      <c r="L46" s="9">
         <v>1170.8750000000002</v>
       </c>
-      <c r="M46" s="8">
+      <c r="M46" s="9">
         <v>1110.7189999999998</v>
       </c>
-      <c r="N46" s="8">
+      <c r="N46" s="9">
         <v>1098.8969999999999</v>
       </c>
-      <c r="O46" s="8">
+      <c r="O46" s="9">
         <v>1104.1369999999997</v>
       </c>
-      <c r="P46" s="8">
+      <c r="P46" s="9">
         <v>1075.9570000000001</v>
       </c>
-      <c r="Q46" s="8">
+      <c r="Q46" s="9">
         <v>1058.617</v>
       </c>
-      <c r="R46" s="8">
+      <c r="R46" s="9">
         <v>1070.5989999999999</v>
       </c>
-      <c r="S46" s="8">
+      <c r="S46" s="9">
         <v>1080.5840000000001</v>
       </c>
-      <c r="T46" s="8">
+      <c r="T46" s="9">
         <v>1066.8420000000001</v>
       </c>
-      <c r="U46" s="8">
+      <c r="U46" s="9">
         <v>1038.5319999999999</v>
       </c>
-      <c r="V46" s="8">
+      <c r="V46" s="9">
         <v>1016.9010000000001</v>
       </c>
-      <c r="W46" s="8">
+      <c r="W46" s="9">
         <v>1049.6579999999999</v>
       </c>
-      <c r="X46" s="8">
+      <c r="X46" s="9">
         <v>1018.6070000000001</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="9">
+        <v>63</v>
+      </c>
+      <c r="B47" s="10">
         <v>9.1199999999999992</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="10">
         <v>8.7040000000000006</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="10">
         <v>9.0060000000000002</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="10">
         <v>9.5069999999999997</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="10">
         <v>9.9049999999999994</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="10">
         <v>13.465999999999999</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="10">
         <v>13.491</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="10">
         <v>14.021000000000001</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="10">
         <v>13.454000000000001</v>
       </c>
-      <c r="K47" s="9">
+      <c r="K47" s="10">
         <v>12.413</v>
       </c>
-      <c r="L47" s="9">
+      <c r="L47" s="10">
         <v>12.450999999999999</v>
       </c>
-      <c r="M47" s="9">
+      <c r="M47" s="10">
         <v>12.693</v>
       </c>
-      <c r="N47" s="9">
+      <c r="N47" s="10">
         <v>13.022</v>
       </c>
-      <c r="O47" s="9">
+      <c r="O47" s="10">
         <v>14.34</v>
       </c>
-      <c r="P47" s="9">
+      <c r="P47" s="10">
         <v>15.261000000000001</v>
       </c>
-      <c r="Q47" s="9">
+      <c r="Q47" s="10">
         <v>15.853</v>
       </c>
-      <c r="R47" s="9">
+      <c r="R47" s="10">
         <v>17.324999999999999</v>
       </c>
-      <c r="S47" s="9">
+      <c r="S47" s="10">
         <v>19.908000000000001</v>
       </c>
-      <c r="T47" s="9">
+      <c r="T47" s="10">
         <v>20.994</v>
       </c>
-      <c r="U47" s="9">
+      <c r="U47" s="10">
         <v>25.439</v>
       </c>
-      <c r="V47" s="9">
+      <c r="V47" s="10">
         <v>27.742999999999999</v>
       </c>
-      <c r="W47" s="9">
+      <c r="W47" s="10">
         <v>34.134</v>
       </c>
-      <c r="X47" s="9">
+      <c r="X47" s="10">
         <v>36.699999999999996</v>
       </c>
     </row>
@@ -3862,73 +3953,73 @@
       <c r="A48" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="10">
         <v>228.20400000000001</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="10">
         <v>243.971</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="10">
         <v>262.12599999999998</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="10">
         <v>278.017</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="10">
         <v>286.73700000000002</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="10">
         <v>299.892</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="10">
         <v>290.96600000000001</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="10">
         <v>305.46800000000002</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="10">
         <v>299.55200000000002</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K48" s="10">
         <v>295.08300000000003</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L48" s="10">
         <v>317.24700000000001</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M48" s="10">
         <v>302.71100000000001</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N48" s="10">
         <v>330.97</v>
       </c>
-      <c r="O48" s="9">
+      <c r="O48" s="10">
         <v>353.82499999999999</v>
       </c>
-      <c r="P48" s="9">
+      <c r="P48" s="10">
         <v>351.517</v>
       </c>
-      <c r="Q48" s="9">
+      <c r="Q48" s="10">
         <v>353.21</v>
       </c>
-      <c r="R48" s="9">
+      <c r="R48" s="10">
         <v>345.226</v>
       </c>
-      <c r="S48" s="9">
+      <c r="S48" s="10">
         <v>348.85899999999998</v>
       </c>
-      <c r="T48" s="9">
+      <c r="T48" s="10">
         <v>332.33199999999999</v>
       </c>
-      <c r="U48" s="9">
+      <c r="U48" s="10">
         <v>326.67200000000003</v>
       </c>
-      <c r="V48" s="9">
+      <c r="V48" s="10">
         <v>310.92599999999999</v>
       </c>
-      <c r="W48" s="9">
+      <c r="W48" s="10">
         <v>321.541</v>
       </c>
-      <c r="X48" s="9">
+      <c r="X48" s="10">
         <v>312.25900000000001</v>
       </c>
     </row>
@@ -3936,147 +4027,147 @@
       <c r="A49" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="10">
         <v>254.56</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="10">
         <v>254.255</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="10">
         <v>258.108</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="10">
         <v>268.12400000000002</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="10">
         <v>256.99599999999998</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="10">
         <v>243.23400000000001</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="10">
         <v>267.72800000000001</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="10">
         <v>292.54899999999998</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="10">
         <v>293.197</v>
       </c>
-      <c r="K49" s="9">
+      <c r="K49" s="10">
         <v>298.59899999999999</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L49" s="10">
         <v>332.29300000000001</v>
       </c>
-      <c r="M49" s="9">
+      <c r="M49" s="10">
         <v>409.536</v>
       </c>
-      <c r="N49" s="9">
+      <c r="N49" s="10">
         <v>430.24700000000001</v>
       </c>
-      <c r="O49" s="9">
+      <c r="O49" s="10">
         <v>441.68700000000001</v>
       </c>
-      <c r="P49" s="9">
+      <c r="P49" s="10">
         <v>453.79399999999998</v>
       </c>
-      <c r="Q49" s="9">
+      <c r="Q49" s="10">
         <v>424.37900000000002</v>
       </c>
-      <c r="R49" s="9">
+      <c r="R49" s="10">
         <v>439.41899999999998</v>
       </c>
-      <c r="S49" s="9">
+      <c r="S49" s="10">
         <v>425.298</v>
       </c>
-      <c r="T49" s="9">
+      <c r="T49" s="10">
         <v>405.98399999999998</v>
       </c>
-      <c r="U49" s="9">
+      <c r="U49" s="10">
         <v>384.964</v>
       </c>
-      <c r="V49" s="9">
+      <c r="V49" s="10">
         <v>394.22899999999998</v>
       </c>
-      <c r="W49" s="9">
+      <c r="W49" s="10">
         <v>359.59500000000003</v>
       </c>
-      <c r="X49" s="9">
+      <c r="X49" s="10">
         <v>343.40100000000001</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="9">
+        <v>65</v>
+      </c>
+      <c r="B50" s="10">
         <v>3.3479999999999999</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="10">
         <v>3.4319999999999999</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="10">
         <v>3.3740000000000001</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="10">
         <v>3.484</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="10">
         <v>3.3740000000000001</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="10">
         <v>3.226</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="10">
         <v>3.081</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="10">
         <v>3.0430000000000001</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="10">
         <v>2.75</v>
       </c>
-      <c r="K50" s="9">
+      <c r="K50" s="10">
         <v>2.8860000000000001</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L50" s="10">
         <v>2.6320000000000001</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M50" s="10">
         <v>2.6760000000000002</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N50" s="10">
         <v>2.609</v>
       </c>
-      <c r="O50" s="9">
+      <c r="O50" s="10">
         <v>2.6030000000000002</v>
       </c>
-      <c r="P50" s="9">
+      <c r="P50" s="10">
         <v>2.62</v>
       </c>
-      <c r="Q50" s="9">
+      <c r="Q50" s="10">
         <v>2.5950000000000002</v>
       </c>
-      <c r="R50" s="9">
+      <c r="R50" s="10">
         <v>2.5009999999999999</v>
       </c>
-      <c r="S50" s="9">
+      <c r="S50" s="10">
         <v>2.4569999999999999</v>
       </c>
-      <c r="T50" s="9">
+      <c r="T50" s="10">
         <v>2.524</v>
       </c>
-      <c r="U50" s="9">
+      <c r="U50" s="10">
         <v>2.847</v>
       </c>
-      <c r="V50" s="9">
+      <c r="V50" s="10">
         <v>2.992</v>
       </c>
-      <c r="W50" s="9">
+      <c r="W50" s="10">
         <v>3.008</v>
       </c>
-      <c r="X50" s="9">
+      <c r="X50" s="10">
         <v>2.98</v>
       </c>
     </row>
@@ -4084,73 +4175,73 @@
       <c r="A51" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="10">
         <v>96.817000000000007</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="10">
         <v>93.872</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="10">
         <v>91.800999999999988</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="10">
         <v>104.137</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="10">
         <v>103.14700000000001</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="10">
         <v>86.35</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="10">
         <v>97.34</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="10">
         <v>84.233999999999995</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="10">
         <v>83.503999999999991</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K51" s="10">
         <v>83.832000000000008</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L51" s="10">
         <v>90.682000000000002</v>
       </c>
-      <c r="M51" s="9">
+      <c r="M51" s="10">
         <v>91.709000000000003</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N51" s="10">
         <v>83.644999999999996</v>
       </c>
-      <c r="O51" s="9">
+      <c r="O51" s="10">
         <v>84.88600000000001</v>
       </c>
-      <c r="P51" s="9">
+      <c r="P51" s="10">
         <v>86.941999999999993</v>
       </c>
-      <c r="Q51" s="9">
+      <c r="Q51" s="10">
         <v>91.27</v>
       </c>
-      <c r="R51" s="9">
+      <c r="R51" s="10">
         <v>85.664999999999992</v>
       </c>
-      <c r="S51" s="9">
+      <c r="S51" s="10">
         <v>91.103000000000009</v>
       </c>
-      <c r="T51" s="9">
+      <c r="T51" s="10">
         <v>88.347999999999999</v>
       </c>
-      <c r="U51" s="9">
+      <c r="U51" s="10">
         <v>87.652999999999992</v>
       </c>
-      <c r="V51" s="9">
+      <c r="V51" s="10">
         <v>87.548000000000002</v>
       </c>
-      <c r="W51" s="9">
+      <c r="W51" s="10">
         <v>88.825000000000003</v>
       </c>
-      <c r="X51" s="9">
+      <c r="X51" s="10">
         <v>86.037999999999997</v>
       </c>
     </row>
@@ -4158,71 +4249,71 @@
       <c r="A52" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="10">
         <v>322.04899999999998</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="10">
         <v>319.858</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="10">
         <v>295.09399999999999</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="10">
         <v>240.01300000000001</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="10">
         <v>282.44200000000001</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="10">
         <v>304.755</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="10">
         <v>303.42599999999999</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="10">
         <v>263.83199999999999</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="10">
         <v>258.12799999999999</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K52" s="10">
         <v>279.75</v>
       </c>
-      <c r="L52" s="9">
+      <c r="L52" s="10">
         <v>288.23</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M52" s="10">
         <v>101.761</v>
       </c>
-      <c r="N52" s="9">
+      <c r="N52" s="10">
         <v>15.939</v>
       </c>
-      <c r="O52" s="9">
+      <c r="O52" s="10">
         <v>9.3030000000000008</v>
       </c>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9">
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10">
         <v>9.4369999999999994</v>
       </c>
-      <c r="R52" s="9">
+      <c r="R52" s="10">
         <v>18.059999999999999</v>
       </c>
-      <c r="S52" s="9">
+      <c r="S52" s="10">
         <v>32.911999999999999</v>
       </c>
-      <c r="T52" s="9">
+      <c r="T52" s="10">
         <v>64.929000000000002</v>
       </c>
-      <c r="U52" s="9">
+      <c r="U52" s="10">
         <v>63.779000000000003</v>
       </c>
-      <c r="V52" s="9">
+      <c r="V52" s="10">
         <v>38.752000000000002</v>
       </c>
-      <c r="W52" s="9">
+      <c r="W52" s="10">
         <v>70.805000000000007</v>
       </c>
-      <c r="X52" s="9">
+      <c r="X52" s="10">
         <v>56.07</v>
       </c>
     </row>
@@ -4230,73 +4321,73 @@
       <c r="A53" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="10">
         <v>153.24799999999999</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="10">
         <v>125.331</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="10">
         <v>147.49299999999999</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="10">
         <v>153.90600000000001</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="10">
         <v>143.43099999999998</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="10">
         <v>154.74199999999999</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="10">
         <v>132.75700000000001</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="10">
         <v>174.12</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="10">
         <v>152.51500000000001</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K53" s="10">
         <v>111.63999999999999</v>
       </c>
-      <c r="L53" s="9">
+      <c r="L53" s="10">
         <v>119.78</v>
       </c>
-      <c r="M53" s="9">
+      <c r="M53" s="10">
         <v>180.11699999999999</v>
       </c>
-      <c r="N53" s="9">
+      <c r="N53" s="10">
         <v>211.01400000000001</v>
       </c>
-      <c r="O53" s="9">
+      <c r="O53" s="10">
         <v>179.42600000000002</v>
       </c>
-      <c r="P53" s="9">
+      <c r="P53" s="10">
         <v>137.654</v>
       </c>
-      <c r="Q53" s="9">
+      <c r="Q53" s="10">
         <v>121.49100000000001</v>
       </c>
-      <c r="R53" s="9">
+      <c r="R53" s="10">
         <v>110.476</v>
       </c>
-      <c r="S53" s="9">
+      <c r="S53" s="10">
         <v>98.489000000000004</v>
       </c>
-      <c r="T53" s="9">
+      <c r="T53" s="10">
         <v>81.581999999999994</v>
       </c>
-      <c r="U53" s="9">
+      <c r="U53" s="10">
         <v>70.179000000000002</v>
       </c>
-      <c r="V53" s="9">
+      <c r="V53" s="10">
         <v>66.653999999999996</v>
       </c>
-      <c r="W53" s="9">
+      <c r="W53" s="10">
         <v>76.257000000000005</v>
       </c>
-      <c r="X53" s="9">
+      <c r="X53" s="10">
         <v>79.248000000000005</v>
       </c>
     </row>
@@ -4304,73 +4395,73 @@
       <c r="A54" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="10">
         <v>0.35699999999999998</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="10">
         <v>0.54700000000000004</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="10">
         <v>0.64400000000000002</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="10">
         <v>0.85699999999999998</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="10">
         <v>1.1180000000000001</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="10">
         <v>1.42</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="10">
         <v>1.7210000000000001</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="10">
         <v>1.972</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J54" s="10">
         <v>2.206</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K54" s="10">
         <v>2.657</v>
       </c>
-      <c r="L54" s="9">
+      <c r="L54" s="10">
         <v>3.5430000000000001</v>
       </c>
-      <c r="M54" s="9">
+      <c r="M54" s="10">
         <v>4.8390000000000004</v>
       </c>
-      <c r="N54" s="9">
+      <c r="N54" s="10">
         <v>6.6130000000000004</v>
       </c>
-      <c r="O54" s="9">
+      <c r="O54" s="10">
         <v>12.88</v>
       </c>
-      <c r="P54" s="9">
+      <c r="P54" s="10">
         <v>22.952000000000002</v>
       </c>
-      <c r="Q54" s="9">
+      <c r="Q54" s="10">
         <v>34.802</v>
       </c>
-      <c r="R54" s="9">
+      <c r="R54" s="10">
         <v>45.761000000000003</v>
       </c>
-      <c r="S54" s="9">
+      <c r="S54" s="10">
         <v>55.067999999999998</v>
       </c>
-      <c r="T54" s="9">
+      <c r="T54" s="10">
         <v>62.667999999999999</v>
       </c>
-      <c r="U54" s="9">
+      <c r="U54" s="10">
         <v>69.381</v>
       </c>
-      <c r="V54" s="9">
+      <c r="V54" s="10">
         <v>79.087000000000003</v>
       </c>
-      <c r="W54" s="9">
+      <c r="W54" s="10">
         <v>86.08</v>
       </c>
-      <c r="X54" s="9">
+      <c r="X54" s="10">
         <v>92.614000000000004</v>
       </c>
     </row>
@@ -4378,232 +4469,232 @@
       <c r="A55" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="10">
         <v>0.109</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="10">
         <v>0.252</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="10">
         <v>0.41499999999999998</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="10">
         <v>0.83299999999999996</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="10">
         <v>1.31</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="10">
         <v>1.7510000000000001</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="10">
         <v>2.1670000000000003</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I55" s="10">
         <v>2.6140000000000003</v>
       </c>
-      <c r="J55" s="9">
+      <c r="J55" s="10">
         <v>2.9420000000000002</v>
       </c>
-      <c r="K55" s="9">
+      <c r="K55" s="10">
         <v>3.613</v>
       </c>
-      <c r="L55" s="9">
+      <c r="L55" s="10">
         <v>4.0170000000000003</v>
       </c>
-      <c r="M55" s="9">
+      <c r="M55" s="10">
         <v>4.6769999999999996</v>
       </c>
-      <c r="N55" s="9">
+      <c r="N55" s="10">
         <v>4.8380000000000001</v>
       </c>
-      <c r="O55" s="9">
+      <c r="O55" s="10">
         <v>5.1869999999999994</v>
       </c>
-      <c r="P55" s="9">
+      <c r="P55" s="10">
         <v>5.2169999999999996</v>
       </c>
-      <c r="Q55" s="9">
+      <c r="Q55" s="10">
         <v>5.58</v>
       </c>
-      <c r="R55" s="9">
+      <c r="R55" s="10">
         <v>6.1660000000000004</v>
       </c>
-      <c r="S55" s="9">
+      <c r="S55" s="10">
         <v>6.49</v>
       </c>
-      <c r="T55" s="9">
+      <c r="T55" s="10">
         <v>7.4810000000000008</v>
       </c>
-      <c r="U55" s="9">
+      <c r="U55" s="10">
         <v>7.6180000000000003</v>
       </c>
-      <c r="V55" s="9">
+      <c r="V55" s="10">
         <v>8.9700000000000006</v>
       </c>
-      <c r="W55" s="9">
+      <c r="W55" s="10">
         <v>9.4130000000000003</v>
       </c>
-      <c r="X55" s="9">
+      <c r="X55" s="10">
         <v>9.2970000000000006</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="6" t="s">
-        <v>63</v>
+      <c r="A59" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A60" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="7">
+      <c r="A60" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="8">
         <v>2000</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="8">
         <v>2001</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="8">
         <v>2002</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="8">
         <v>2003</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="8">
         <v>2004</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="8">
         <v>2005</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="8">
         <v>2006</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="8">
         <v>2007</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="8">
         <v>2008</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K60" s="8">
         <v>2009</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L60" s="8">
         <v>2010</v>
       </c>
-      <c r="M60" s="7">
+      <c r="M60" s="8">
         <v>2011</v>
       </c>
-      <c r="N60" s="7">
+      <c r="N60" s="8">
         <v>2012</v>
       </c>
-      <c r="O60" s="7">
+      <c r="O60" s="8">
         <v>2013</v>
       </c>
-      <c r="P60" s="7">
+      <c r="P60" s="8">
         <v>2014</v>
       </c>
-      <c r="Q60" s="7">
+      <c r="Q60" s="8">
         <v>2015</v>
       </c>
-      <c r="R60" s="7">
+      <c r="R60" s="8">
         <v>2016</v>
       </c>
-      <c r="S60" s="7">
+      <c r="S60" s="8">
         <v>2017</v>
       </c>
-      <c r="T60" s="7">
+      <c r="T60" s="8">
         <v>2018</v>
       </c>
-      <c r="U60" s="7">
+      <c r="U60" s="8">
         <v>2019</v>
       </c>
-      <c r="V60" s="7">
+      <c r="V60" s="8">
         <v>2020</v>
       </c>
-      <c r="W60" s="7">
+      <c r="W60" s="8">
         <v>2021</v>
       </c>
-      <c r="X60" s="7">
+      <c r="X60" s="8">
         <v>2022</v>
       </c>
-      <c r="Y60" s="7">
+      <c r="Y60" s="8">
         <v>2023</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61" s="9">
+        <v>63</v>
+      </c>
+      <c r="B61" s="10">
         <v>0.37</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="10">
         <v>0.37</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="10">
         <v>0.37</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="10">
         <v>0.37</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="10">
         <v>0.47</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="10">
         <v>0.78</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="10">
         <v>0.91</v>
       </c>
-      <c r="J61" s="9">
+      <c r="J61" s="10">
         <v>0.92</v>
       </c>
-      <c r="K61" s="9">
+      <c r="K61" s="10">
         <v>1</v>
       </c>
-      <c r="L61" s="9">
+      <c r="L61" s="10">
         <v>1.1100000000000001</v>
       </c>
-      <c r="M61" s="9">
+      <c r="M61" s="10">
         <v>1.28</v>
       </c>
-      <c r="N61" s="9">
+      <c r="N61" s="10">
         <v>0.64</v>
       </c>
-      <c r="O61" s="9">
+      <c r="O61" s="10">
         <v>0.66</v>
       </c>
-      <c r="P61" s="9">
+      <c r="P61" s="10">
         <v>0.75</v>
       </c>
-      <c r="Q61" s="9">
+      <c r="Q61" s="10">
         <v>1</v>
       </c>
-      <c r="R61" s="9">
+      <c r="R61" s="10">
         <v>1.29</v>
       </c>
-      <c r="S61" s="9">
+      <c r="S61" s="10">
         <v>1.67</v>
       </c>
-      <c r="T61" s="9">
+      <c r="T61" s="10">
         <v>2.08</v>
       </c>
-      <c r="U61" s="9">
+      <c r="U61" s="10">
         <v>2.5299999999999998</v>
       </c>
-      <c r="V61" s="9">
+      <c r="V61" s="10">
         <v>2.88</v>
       </c>
-      <c r="W61" s="9">
+      <c r="W61" s="10">
         <v>3.51</v>
       </c>
-      <c r="X61" s="9">
+      <c r="X61" s="10">
         <v>4.3600000000000003</v>
       </c>
-      <c r="Y61" s="9">
+      <c r="Y61" s="10">
         <v>5.36</v>
       </c>
     </row>
@@ -4611,76 +4702,76 @@
       <c r="A62" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="10">
         <v>31.81</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="10">
         <v>32.93</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="10">
         <v>36.479999999999997</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="10">
         <v>38.619999999999997</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="10">
         <v>40.93</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="10">
         <v>41.12</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="10">
         <v>41.22</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="10">
         <v>41.62</v>
       </c>
-      <c r="J62" s="9">
+      <c r="J62" s="10">
         <v>42.02</v>
       </c>
-      <c r="K62" s="9">
+      <c r="K62" s="10">
         <v>42.62</v>
       </c>
-      <c r="L62" s="9">
+      <c r="L62" s="10">
         <v>43.6</v>
       </c>
-      <c r="M62" s="9">
+      <c r="M62" s="10">
         <v>43.6</v>
       </c>
-      <c r="N62" s="9">
+      <c r="N62" s="10">
         <v>43.6</v>
       </c>
-      <c r="O62" s="9">
+      <c r="O62" s="10">
         <v>45.45</v>
       </c>
-      <c r="P62" s="9">
+      <c r="P62" s="10">
         <v>45.45</v>
       </c>
-      <c r="Q62" s="9">
+      <c r="Q62" s="10">
         <v>45.53</v>
       </c>
-      <c r="R62" s="9">
+      <c r="R62" s="10">
         <v>45.71</v>
       </c>
-      <c r="S62" s="9">
+      <c r="S62" s="10">
         <v>46.11</v>
       </c>
-      <c r="T62" s="9">
+      <c r="T62" s="10">
         <v>46.29</v>
       </c>
-      <c r="U62" s="9">
+      <c r="U62" s="10">
         <v>47.07</v>
       </c>
-      <c r="V62" s="9">
+      <c r="V62" s="10">
         <v>48.74</v>
       </c>
-      <c r="W62" s="9">
+      <c r="W62" s="10">
         <v>50.57</v>
       </c>
-      <c r="X62" s="9">
+      <c r="X62" s="10">
         <v>53.44</v>
       </c>
-      <c r="Y62" s="9">
+      <c r="Y62" s="10">
         <v>55.73</v>
       </c>
     </row>
@@ -4688,76 +4779,76 @@
       <c r="A63" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="10">
         <v>50.53</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="10">
         <v>51.77</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="10">
         <v>52.69</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="10">
         <v>54.55</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="10">
         <v>55.01</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="10">
         <v>55.11</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="10">
         <v>56.54</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="10">
         <v>57.04</v>
       </c>
-      <c r="J63" s="9">
+      <c r="J63" s="10">
         <v>60.6</v>
       </c>
-      <c r="K63" s="9">
+      <c r="K63" s="10">
         <v>64.2</v>
       </c>
-      <c r="L63" s="9">
+      <c r="L63" s="10">
         <v>67.55</v>
       </c>
-      <c r="M63" s="9">
+      <c r="M63" s="10">
         <v>67.819999999999993</v>
       </c>
-      <c r="N63" s="9">
+      <c r="N63" s="10">
         <v>68.88</v>
       </c>
-      <c r="O63" s="9">
+      <c r="O63" s="10">
         <v>71.8</v>
       </c>
-      <c r="P63" s="9">
+      <c r="P63" s="10">
         <v>77.39</v>
       </c>
-      <c r="Q63" s="9">
+      <c r="Q63" s="10">
         <v>79.22</v>
       </c>
-      <c r="R63" s="9">
+      <c r="R63" s="10">
         <v>82.51</v>
       </c>
-      <c r="S63" s="9">
+      <c r="S63" s="10">
         <v>83.7</v>
       </c>
-      <c r="T63" s="9">
+      <c r="T63" s="10">
         <v>85.31</v>
       </c>
-      <c r="U63" s="9">
+      <c r="U63" s="10">
         <v>86.51</v>
       </c>
-      <c r="V63" s="9">
+      <c r="V63" s="10">
         <v>89.21</v>
       </c>
-      <c r="W63" s="9">
+      <c r="W63" s="10">
         <v>83.56</v>
       </c>
-      <c r="X63" s="9">
+      <c r="X63" s="10">
         <v>82.69</v>
       </c>
-      <c r="Y63" s="9">
+      <c r="Y63" s="10">
         <v>85.21</v>
       </c>
     </row>
@@ -4765,76 +4856,76 @@
       <c r="A64" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="10">
         <v>22.02</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="10">
         <v>27.35</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="10">
         <v>27.42</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="10">
         <v>27.73</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="10">
         <v>27.76</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="10">
         <v>27.84</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="10">
         <v>27.91</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I64" s="10">
         <v>27.53</v>
       </c>
-      <c r="J64" s="9">
+      <c r="J64" s="10">
         <v>27.56</v>
       </c>
-      <c r="K64" s="9">
+      <c r="K64" s="10">
         <v>27.49</v>
       </c>
-      <c r="L64" s="9">
+      <c r="L64" s="10">
         <v>27.99</v>
       </c>
-      <c r="M64" s="9">
+      <c r="M64" s="10">
         <v>27.77</v>
       </c>
-      <c r="N64" s="9">
+      <c r="N64" s="10">
         <v>27.82</v>
       </c>
-      <c r="O64" s="9">
+      <c r="O64" s="10">
         <v>27.81</v>
       </c>
-      <c r="P64" s="9">
+      <c r="P64" s="10">
         <v>27.87</v>
       </c>
-      <c r="Q64" s="9">
+      <c r="Q64" s="10">
         <v>28.11</v>
       </c>
-      <c r="R64" s="9">
+      <c r="R64" s="10">
         <v>28.16</v>
       </c>
-      <c r="S64" s="9">
+      <c r="S64" s="10">
         <v>28.12</v>
       </c>
-      <c r="T64" s="9">
+      <c r="T64" s="10">
         <v>28.14</v>
       </c>
-      <c r="U64" s="9">
+      <c r="U64" s="10">
         <v>28.14</v>
       </c>
-      <c r="V64" s="9">
+      <c r="V64" s="10">
         <v>28.14</v>
       </c>
-      <c r="W64" s="9">
+      <c r="W64" s="10">
         <v>28.11</v>
       </c>
-      <c r="X64" s="9">
+      <c r="X64" s="10">
         <v>28.2</v>
       </c>
-      <c r="Y64" s="9">
+      <c r="Y64" s="10">
         <v>28.22</v>
       </c>
     </row>
@@ -4842,76 +4933,76 @@
       <c r="A65" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="10">
         <v>45.25</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="10">
         <v>45.91</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="10">
         <v>45.91</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="10">
         <v>45.74</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="10">
         <v>47.12</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G65" s="10">
         <v>49.58</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="10">
         <v>49.47</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I65" s="10">
         <v>49.47</v>
       </c>
-      <c r="J65" s="9">
+      <c r="J65" s="10">
         <v>47.94</v>
       </c>
-      <c r="K65" s="9">
+      <c r="K65" s="10">
         <v>48.85</v>
       </c>
-      <c r="L65" s="9">
+      <c r="L65" s="10">
         <v>48.96</v>
       </c>
-      <c r="M65" s="9">
+      <c r="M65" s="10">
         <v>48.96</v>
       </c>
-      <c r="N65" s="9">
+      <c r="N65" s="10">
         <v>46.15</v>
       </c>
-      <c r="O65" s="9">
+      <c r="O65" s="10">
         <v>44.26</v>
       </c>
-      <c r="P65" s="9">
+      <c r="P65" s="10">
         <v>44.26</v>
       </c>
-      <c r="Q65" s="9">
+      <c r="Q65" s="10">
         <v>42.05</v>
       </c>
-      <c r="R65" s="9">
+      <c r="R65" s="10">
         <v>41.48</v>
       </c>
-      <c r="S65" s="9">
+      <c r="S65" s="10">
         <v>39.130000000000003</v>
       </c>
-      <c r="T65" s="9">
+      <c r="T65" s="10">
         <v>38.04</v>
       </c>
-      <c r="U65" s="9">
+      <c r="U65" s="10">
         <v>33.08</v>
       </c>
-      <c r="V65" s="9">
+      <c r="V65" s="10">
         <v>33.08</v>
       </c>
-      <c r="W65" s="9">
+      <c r="W65" s="10">
         <v>33.08</v>
       </c>
-      <c r="X65" s="9">
+      <c r="X65" s="10">
         <v>33.08</v>
       </c>
-      <c r="Y65" s="9">
+      <c r="Y65" s="10">
         <v>33.08</v>
       </c>
     </row>
@@ -4919,76 +5010,76 @@
       <c r="A66" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="10">
         <v>51.71</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="10">
         <v>44.75</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="10">
         <v>44.16</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="10">
         <v>41.41</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="10">
         <v>41.18</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="10">
         <v>41.16</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="10">
         <v>39.83</v>
       </c>
-      <c r="I66" s="9">
+      <c r="I66" s="10">
         <v>42.06</v>
       </c>
-      <c r="J66" s="9">
+      <c r="J66" s="10">
         <v>42.09</v>
       </c>
-      <c r="K66" s="9">
+      <c r="K66" s="10">
         <v>41.68</v>
       </c>
-      <c r="L66" s="9">
+      <c r="L66" s="10">
         <v>41.69</v>
       </c>
-      <c r="M66" s="9">
+      <c r="M66" s="10">
         <v>41.69</v>
       </c>
-      <c r="N66" s="9">
+      <c r="N66" s="10">
         <v>42.02</v>
       </c>
-      <c r="O66" s="9">
+      <c r="O66" s="10">
         <v>42.04</v>
       </c>
-      <c r="P66" s="9">
+      <c r="P66" s="10">
         <v>42.06</v>
       </c>
-      <c r="Q66" s="9">
+      <c r="Q66" s="10">
         <v>42.08</v>
       </c>
-      <c r="R66" s="9">
+      <c r="R66" s="10">
         <v>42.01</v>
       </c>
-      <c r="S66" s="9">
+      <c r="S66" s="10">
         <v>39.28</v>
       </c>
-      <c r="T66" s="9">
+      <c r="T66" s="10">
         <v>37.299999999999997</v>
       </c>
-      <c r="U66" s="9">
+      <c r="U66" s="10">
         <v>33.08</v>
       </c>
-      <c r="V66" s="9">
+      <c r="V66" s="10">
         <v>32.380000000000003</v>
       </c>
-      <c r="W66" s="9">
+      <c r="W66" s="10">
         <v>33.159999999999997</v>
       </c>
-      <c r="X66" s="9">
+      <c r="X66" s="10">
         <v>30.52</v>
       </c>
-      <c r="Y66" s="9">
+      <c r="Y66" s="10">
         <v>21.31</v>
       </c>
     </row>
@@ -4996,76 +5087,76 @@
       <c r="A67" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="10">
         <v>0.33</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="10">
         <v>0.45</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="10">
         <v>0.64</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="10">
         <v>0.86</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="10">
         <v>1.1299999999999999</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="10">
         <v>1.42</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="10">
         <v>1.71</v>
       </c>
-      <c r="I67" s="9">
+      <c r="I67" s="10">
         <v>1.92</v>
       </c>
-      <c r="J67" s="9">
+      <c r="J67" s="10">
         <v>2.14</v>
       </c>
-      <c r="K67" s="9">
+      <c r="K67" s="10">
         <v>2.63</v>
       </c>
-      <c r="L67" s="9">
+      <c r="L67" s="10">
         <v>3.62</v>
       </c>
-      <c r="M67" s="9">
+      <c r="M67" s="10">
         <v>4.91</v>
       </c>
-      <c r="N67" s="9">
+      <c r="N67" s="10">
         <v>6.63</v>
       </c>
-      <c r="O67" s="9">
+      <c r="O67" s="10">
         <v>13.6</v>
       </c>
-      <c r="P67" s="9">
+      <c r="P67" s="10">
         <v>23.34</v>
       </c>
-      <c r="Q67" s="9">
+      <c r="Q67" s="10">
         <v>34.15</v>
       </c>
-      <c r="R67" s="9">
+      <c r="R67" s="10">
         <v>42.04</v>
       </c>
-      <c r="S67" s="9">
+      <c r="S67" s="10">
         <v>49.5</v>
       </c>
-      <c r="T67" s="9">
+      <c r="T67" s="10">
         <v>56.16</v>
       </c>
-      <c r="U67" s="9">
+      <c r="U67" s="10">
         <v>63.19</v>
       </c>
-      <c r="V67" s="9">
+      <c r="V67" s="10">
         <v>71.87</v>
       </c>
-      <c r="W67" s="9">
+      <c r="W67" s="10">
         <v>78.41</v>
       </c>
-      <c r="X67" s="9">
+      <c r="X67" s="10">
         <v>83.06</v>
       </c>
-      <c r="Y67" s="9">
+      <c r="Y67" s="10">
         <v>87.07</v>
       </c>
     </row>
@@ -5073,241 +5164,241 @@
       <c r="A68" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="10">
         <v>0.08</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="10">
         <v>0.17</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="10">
         <v>0.51</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="10">
         <v>0.77</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="10">
         <v>1.23</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H68" s="10">
         <v>1.8</v>
       </c>
-      <c r="I68" s="9">
+      <c r="I68" s="10">
         <v>1.53</v>
       </c>
-      <c r="J68" s="9">
+      <c r="J68" s="10">
         <v>1.76</v>
       </c>
-      <c r="K68" s="9">
+      <c r="K68" s="10">
         <v>2</v>
       </c>
-      <c r="L68" s="9">
+      <c r="L68" s="10">
         <v>2.29</v>
       </c>
-      <c r="M68" s="9">
+      <c r="M68" s="10">
         <v>2.42</v>
       </c>
-      <c r="N68" s="9">
+      <c r="N68" s="10">
         <v>2.56</v>
       </c>
-      <c r="O68" s="9">
+      <c r="O68" s="10">
         <v>2.65</v>
       </c>
-      <c r="P68" s="9">
+      <c r="P68" s="10">
         <v>2.75</v>
       </c>
-      <c r="Q68" s="9">
+      <c r="Q68" s="10">
         <v>2.81</v>
       </c>
-      <c r="R68" s="9">
+      <c r="R68" s="10">
         <v>3.21</v>
       </c>
-      <c r="S68" s="9">
+      <c r="S68" s="10">
         <v>3.48</v>
       </c>
-      <c r="T68" s="9">
+      <c r="T68" s="10">
         <v>3.5</v>
       </c>
-      <c r="U68" s="9">
+      <c r="U68" s="10">
         <v>3.95</v>
       </c>
-      <c r="V68" s="9">
+      <c r="V68" s="10">
         <v>4.12</v>
       </c>
-      <c r="W68" s="9">
+      <c r="W68" s="10">
         <v>4.26</v>
       </c>
-      <c r="X68" s="9">
+      <c r="X68" s="10">
         <v>4.37</v>
       </c>
-      <c r="Y68" s="9">
+      <c r="Y68" s="10">
         <v>5.23</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="6" t="s">
-        <v>64</v>
+      <c r="A71" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A72" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B72" s="7">
+      <c r="A72" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="8">
         <v>2000</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="8">
         <v>2001</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="8">
         <v>2002</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="8">
         <v>2003</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="8">
         <v>2004</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="8">
         <v>2005</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72" s="8">
         <v>2006</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="8">
         <v>2007</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J72" s="8">
         <v>2008</v>
       </c>
-      <c r="K72" s="7">
+      <c r="K72" s="8">
         <v>2009</v>
       </c>
-      <c r="L72" s="7">
+      <c r="L72" s="8">
         <v>2010</v>
       </c>
-      <c r="M72" s="7">
+      <c r="M72" s="8">
         <v>2011</v>
       </c>
-      <c r="N72" s="7">
+      <c r="N72" s="8">
         <v>2012</v>
       </c>
-      <c r="O72" s="7">
+      <c r="O72" s="8">
         <v>2013</v>
       </c>
-      <c r="P72" s="7">
+      <c r="P72" s="8">
         <v>2014</v>
       </c>
-      <c r="Q72" s="7">
+      <c r="Q72" s="8">
         <v>2015</v>
       </c>
-      <c r="R72" s="7">
+      <c r="R72" s="8">
         <v>2016</v>
       </c>
-      <c r="S72" s="7">
+      <c r="S72" s="8">
         <v>2017</v>
       </c>
-      <c r="T72" s="7">
+      <c r="T72" s="8">
         <v>2018</v>
       </c>
-      <c r="U72" s="7">
+      <c r="U72" s="8">
         <v>2019</v>
       </c>
-      <c r="V72" s="7">
+      <c r="V72" s="8">
         <v>2020</v>
       </c>
-      <c r="W72" s="7">
+      <c r="W72" s="8">
         <v>2021</v>
       </c>
-      <c r="X72" s="7">
+      <c r="X72" s="8">
         <v>2022</v>
       </c>
-      <c r="Y72" s="7">
+      <c r="Y72" s="8">
         <v>2023</v>
       </c>
-      <c r="Z72" s="7">
+      <c r="Z72" s="8">
         <v>2024</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>57</v>
-      </c>
-      <c r="B73" s="9">
+        <v>63</v>
+      </c>
+      <c r="B73" s="10">
         <v>0.79299999999999993</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="10">
         <v>0.78349999999999997</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="10">
         <v>0.77100000000000002</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="10">
         <v>0.75900000000000001</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="10">
         <v>0.89549999999999996</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G73" s="10">
         <v>1.0210000000000001</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="10">
         <v>1.2675000000000001</v>
       </c>
-      <c r="I73" s="9">
+      <c r="I73" s="10">
         <v>1.403</v>
       </c>
-      <c r="J73" s="9">
+      <c r="J73" s="10">
         <v>1.4344999999999999</v>
       </c>
-      <c r="K73" s="9">
+      <c r="K73" s="10">
         <v>1.4929999999999999</v>
       </c>
-      <c r="L73" s="9">
+      <c r="L73" s="10">
         <v>1.611</v>
       </c>
-      <c r="M73" s="9">
+      <c r="M73" s="10">
         <v>1.7794999999999999</v>
       </c>
-      <c r="N73" s="9">
+      <c r="N73" s="10">
         <v>0.89300000000000002</v>
       </c>
-      <c r="O73" s="9">
+      <c r="O73" s="10">
         <v>0.93150000000000011</v>
       </c>
-      <c r="P73" s="9">
+      <c r="P73" s="10">
         <v>1.0469999999999999</v>
       </c>
-      <c r="Q73" s="9">
+      <c r="Q73" s="10">
         <v>1.3185</v>
       </c>
-      <c r="R73" s="9">
+      <c r="R73" s="10">
         <v>1.631</v>
       </c>
-      <c r="S73" s="9">
+      <c r="S73" s="10">
         <v>2.0255000000000001</v>
       </c>
-      <c r="T73" s="9">
+      <c r="T73" s="10">
         <v>2.4495</v>
       </c>
-      <c r="U73" s="9">
+      <c r="U73" s="10">
         <v>2.9235000000000002</v>
       </c>
-      <c r="V73" s="9">
+      <c r="V73" s="10">
         <v>3.3239999999999998</v>
       </c>
-      <c r="W73" s="9">
+      <c r="W73" s="10">
         <v>3.976</v>
       </c>
-      <c r="X73" s="9">
+      <c r="X73" s="10">
         <v>4.8250000000000002</v>
       </c>
-      <c r="Y73" s="9">
+      <c r="Y73" s="10">
         <v>5.8050000000000006</v>
       </c>
-      <c r="Z73" s="9">
+      <c r="Z73" s="10">
         <v>6.2196670000000003</v>
       </c>
     </row>
@@ -5315,79 +5406,79 @@
       <c r="A74" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="10">
         <v>25.416</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="10">
         <v>27.353000000000002</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="10">
         <v>30.611999999999998</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="10">
         <v>32.21</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74" s="10">
         <v>33.634</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="10">
         <v>34.518000000000001</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H74" s="10">
         <v>34.493000000000002</v>
       </c>
-      <c r="I74" s="9">
+      <c r="I74" s="10">
         <v>35.335000000000001</v>
       </c>
-      <c r="J74" s="9">
+      <c r="J74" s="10">
         <v>35.335000000000001</v>
       </c>
-      <c r="K74" s="9">
+      <c r="K74" s="10">
         <v>35.935000000000002</v>
       </c>
-      <c r="L74" s="9">
+      <c r="L74" s="10">
         <v>38.165999999999997</v>
       </c>
-      <c r="M74" s="9">
+      <c r="M74" s="10">
         <v>40.396999999999998</v>
       </c>
-      <c r="N74" s="9">
+      <c r="N74" s="10">
         <v>42.628</v>
       </c>
-      <c r="O74" s="9">
+      <c r="O74" s="10">
         <v>44.859000000000002</v>
       </c>
-      <c r="P74" s="9">
+      <c r="P74" s="10">
         <v>47.09</v>
       </c>
-      <c r="Q74" s="9">
+      <c r="Q74" s="10">
         <v>49.320999999999998</v>
       </c>
-      <c r="R74" s="9">
+      <c r="R74" s="10">
         <v>51.555</v>
       </c>
-      <c r="S74" s="9">
+      <c r="S74" s="10">
         <v>52.642000000000003</v>
       </c>
-      <c r="T74" s="9">
+      <c r="T74" s="10">
         <v>50.728000000000002</v>
       </c>
-      <c r="U74" s="9">
+      <c r="U74" s="10">
         <v>52.618000000000002</v>
       </c>
-      <c r="V74" s="9">
+      <c r="V74" s="10">
         <v>54.643999999999998</v>
       </c>
-      <c r="W74" s="9">
+      <c r="W74" s="10">
         <v>54.628</v>
       </c>
-      <c r="X74" s="9">
+      <c r="X74" s="10">
         <v>57.389000000000003</v>
       </c>
-      <c r="Y74" s="9">
+      <c r="Y74" s="10">
         <v>57.698999999999998</v>
       </c>
-      <c r="Z74" s="9">
+      <c r="Z74" s="10">
         <v>58.554000000000002</v>
       </c>
     </row>
@@ -5395,159 +5486,159 @@
       <c r="A75" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="10">
         <v>35.265999999999998</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="10">
         <v>36.584000000000003</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="10">
         <v>37.277999999999999</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="10">
         <v>39.654000000000003</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="10">
         <v>39.341999999999999</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75" s="10">
         <v>39.356000000000002</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75" s="10">
         <v>40.68</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I75" s="10">
         <v>44.750999999999998</v>
       </c>
-      <c r="J75" s="9">
+      <c r="J75" s="10">
         <v>44.750999999999998</v>
       </c>
-      <c r="K75" s="9">
+      <c r="K75" s="10">
         <v>46.679000000000002</v>
       </c>
-      <c r="L75" s="9">
+      <c r="L75" s="10">
         <v>51.692</v>
       </c>
-      <c r="M75" s="9">
+      <c r="M75" s="10">
         <v>56.704999999999998</v>
       </c>
-      <c r="N75" s="9">
+      <c r="N75" s="10">
         <v>61.718000000000004</v>
       </c>
-      <c r="O75" s="9">
+      <c r="O75" s="10">
         <v>66.730999999999995</v>
       </c>
-      <c r="P75" s="9">
+      <c r="P75" s="10">
         <v>71.744</v>
       </c>
-      <c r="Q75" s="9">
+      <c r="Q75" s="10">
         <v>76.757000000000005</v>
       </c>
-      <c r="R75" s="9">
+      <c r="R75" s="10">
         <v>81.772000000000006</v>
       </c>
-      <c r="S75" s="9">
+      <c r="S75" s="10">
         <v>82.296999999999997</v>
       </c>
-      <c r="T75" s="9">
+      <c r="T75" s="10">
         <v>84.421999999999997</v>
       </c>
-      <c r="U75" s="9">
+      <c r="U75" s="10">
         <v>84.058000000000007</v>
       </c>
-      <c r="V75" s="9">
+      <c r="V75" s="10">
         <v>84.278000000000006</v>
       </c>
-      <c r="W75" s="9">
+      <c r="W75" s="10">
         <v>80.759</v>
       </c>
-      <c r="X75" s="9">
+      <c r="X75" s="10">
         <v>78.950999999999993</v>
       </c>
-      <c r="Y75" s="9">
+      <c r="Y75" s="10">
         <v>82.100999999999999</v>
       </c>
-      <c r="Z75" s="9">
+      <c r="Z75" s="10">
         <v>82.533000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>59</v>
-      </c>
-      <c r="B76" s="9">
+        <v>65</v>
+      </c>
+      <c r="B76" s="10">
         <v>0.53300000000000003</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="10">
         <v>0.53300000000000003</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="10">
         <v>0.53300000000000003</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="10">
         <v>0.53500000000000003</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F76" s="10">
         <v>0.53500000000000003</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="10">
         <v>0.53500000000000003</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H76" s="10">
         <v>0.53200000000000003</v>
       </c>
-      <c r="I76" s="9">
+      <c r="I76" s="10">
         <v>0.53200000000000003</v>
       </c>
-      <c r="J76" s="9">
+      <c r="J76" s="10">
         <v>0.53200000000000003</v>
       </c>
-      <c r="K76" s="9">
+      <c r="K76" s="10">
         <v>0.53500000000000003</v>
       </c>
-      <c r="L76" s="9">
+      <c r="L76" s="10">
         <v>0.53700000000000003</v>
       </c>
-      <c r="M76" s="9">
+      <c r="M76" s="10">
         <v>0.53700000000000003</v>
       </c>
-      <c r="N76" s="9">
+      <c r="N76" s="10">
         <v>0.51200000000000001</v>
       </c>
-      <c r="O76" s="9">
+      <c r="O76" s="10">
         <v>0.51200000000000001</v>
       </c>
-      <c r="P76" s="9">
+      <c r="P76" s="10">
         <v>0.50800000000000001</v>
       </c>
-      <c r="Q76" s="9">
+      <c r="Q76" s="10">
         <v>0.51600000000000001</v>
       </c>
-      <c r="R76" s="9">
+      <c r="R76" s="10">
         <v>0.52600000000000002</v>
       </c>
-      <c r="S76" s="9">
+      <c r="S76" s="10">
         <v>0.47099999999999997</v>
       </c>
-      <c r="T76" s="9">
+      <c r="T76" s="10">
         <v>0.47299999999999998</v>
       </c>
-      <c r="U76" s="9">
+      <c r="U76" s="10">
         <v>0.48099999999999998</v>
       </c>
-      <c r="V76" s="9">
+      <c r="V76" s="10">
         <v>0.48699999999999999</v>
       </c>
-      <c r="W76" s="9">
+      <c r="W76" s="10">
         <v>0.48699999999999999</v>
       </c>
-      <c r="X76" s="9">
+      <c r="X76" s="10">
         <v>0.437</v>
       </c>
-      <c r="Y76" s="9">
+      <c r="Y76" s="10">
         <v>0.42799999999999999</v>
       </c>
-      <c r="Z76" s="9">
+      <c r="Z76" s="10">
         <v>0.46100000000000002</v>
       </c>
     </row>
@@ -5555,79 +5646,79 @@
       <c r="A77" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="10">
         <v>46.323999999999998</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="10">
         <v>46.355999999999995</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="10">
         <v>46.402999999999999</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="10">
         <v>46.710999999999999</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F77" s="10">
         <v>46.738</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="10">
         <v>47.291000000000004</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H77" s="10">
         <v>47.358000000000004</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I77" s="10">
         <v>47.313000000000002</v>
       </c>
-      <c r="J77" s="9">
+      <c r="J77" s="10">
         <v>47.341000000000001</v>
       </c>
-      <c r="K77" s="9">
+      <c r="K77" s="10">
         <v>47.242999999999995</v>
       </c>
-      <c r="L77" s="9">
+      <c r="L77" s="10">
         <v>47.735999999999997</v>
       </c>
-      <c r="M77" s="9">
+      <c r="M77" s="10">
         <v>48.418999999999997</v>
       </c>
-      <c r="N77" s="9">
+      <c r="N77" s="10">
         <v>48.933999999999997</v>
       </c>
-      <c r="O77" s="9">
+      <c r="O77" s="10">
         <v>48.932000000000002</v>
       </c>
-      <c r="P77" s="9">
+      <c r="P77" s="10">
         <v>49.597000000000001</v>
       </c>
-      <c r="Q77" s="9">
+      <c r="Q77" s="10">
         <v>50.034999999999997</v>
       </c>
-      <c r="R77" s="9">
+      <c r="R77" s="10">
         <v>50.058</v>
       </c>
-      <c r="S77" s="9">
+      <c r="S77" s="10">
         <v>50.015000000000001</v>
       </c>
-      <c r="T77" s="9">
+      <c r="T77" s="10">
         <v>50.036999999999999</v>
       </c>
-      <c r="U77" s="9">
+      <c r="U77" s="10">
         <v>50.033000000000001</v>
       </c>
-      <c r="V77" s="9">
+      <c r="V77" s="10">
         <v>50.033000000000001</v>
       </c>
-      <c r="W77" s="9">
+      <c r="W77" s="10">
         <v>49.929000000000002</v>
       </c>
-      <c r="X77" s="9">
+      <c r="X77" s="10">
         <v>50.007999999999996</v>
       </c>
-      <c r="Y77" s="9">
+      <c r="Y77" s="10">
         <v>50.025999999999996</v>
       </c>
-      <c r="Z77" s="9">
+      <c r="Z77" s="10">
         <v>50.043999999999997</v>
       </c>
     </row>
@@ -5635,79 +5726,79 @@
       <c r="A78" t="s">
         <v>19</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="10">
         <v>45.247999999999998</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="10">
         <v>45.906999999999996</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="10">
         <v>45.906999999999996</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="10">
         <v>45.741999999999997</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F78" s="10">
         <v>47.122</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G78" s="10">
         <v>49.58</v>
       </c>
-      <c r="H78" s="9">
+      <c r="H78" s="10">
         <v>49.466999999999999</v>
       </c>
-      <c r="I78" s="9">
+      <c r="I78" s="10">
         <v>49.466999999999999</v>
       </c>
-      <c r="J78" s="9">
+      <c r="J78" s="10">
         <v>47.935000000000002</v>
       </c>
-      <c r="K78" s="9">
+      <c r="K78" s="10">
         <v>48.847000000000001</v>
       </c>
-      <c r="L78" s="9">
+      <c r="L78" s="10">
         <v>48.96</v>
       </c>
-      <c r="M78" s="9">
+      <c r="M78" s="10">
         <v>48.96</v>
       </c>
-      <c r="N78" s="9">
+      <c r="N78" s="10">
         <v>46.148000000000003</v>
       </c>
-      <c r="O78" s="9">
+      <c r="O78" s="10">
         <v>44.264000000000003</v>
       </c>
-      <c r="P78" s="9">
+      <c r="P78" s="10">
         <v>44.264000000000003</v>
       </c>
-      <c r="Q78" s="9">
+      <c r="Q78" s="10">
         <v>42.048000000000002</v>
       </c>
-      <c r="R78" s="9">
+      <c r="R78" s="10">
         <v>41.481999999999999</v>
       </c>
-      <c r="S78" s="9">
+      <c r="S78" s="10">
         <v>39.131999999999998</v>
       </c>
-      <c r="T78" s="9">
+      <c r="T78" s="10">
         <v>38.042000000000002</v>
       </c>
-      <c r="U78" s="9">
+      <c r="U78" s="10">
         <v>33.082999999999998</v>
       </c>
-      <c r="V78" s="9">
+      <c r="V78" s="10">
         <v>33.082999999999998</v>
       </c>
-      <c r="W78" s="9">
+      <c r="W78" s="10">
         <v>33.082999999999998</v>
       </c>
-      <c r="X78" s="9">
+      <c r="X78" s="10">
         <v>33.082999999999998</v>
       </c>
-      <c r="Y78" s="9">
+      <c r="Y78" s="10">
         <v>33.082999999999998</v>
       </c>
-      <c r="Z78" s="9">
+      <c r="Z78" s="10">
         <v>33.082999999999998</v>
       </c>
     </row>
@@ -5715,79 +5806,79 @@
       <c r="A79" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="10">
         <v>106.733</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="10">
         <v>105.6225</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="10">
         <v>105.961</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="10">
         <v>103.849</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F79" s="10">
         <v>105.53149999999999</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79" s="10">
         <v>102.95400000000001</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H79" s="10">
         <v>102.27249999999999</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I79" s="10">
         <v>97.923000000000002</v>
       </c>
-      <c r="J79" s="9">
+      <c r="J79" s="10">
         <v>100.3385</v>
       </c>
-      <c r="K79" s="9">
+      <c r="K79" s="10">
         <v>100.297</v>
       </c>
-      <c r="L79" s="9">
+      <c r="L79" s="10">
         <v>93.718000000000004</v>
       </c>
-      <c r="M79" s="9">
+      <c r="M79" s="10">
         <v>89.445499999999996</v>
       </c>
-      <c r="N79" s="9">
+      <c r="N79" s="10">
         <v>86.703000000000003</v>
       </c>
-      <c r="O79" s="9">
+      <c r="O79" s="10">
         <v>81.8155</v>
       </c>
-      <c r="P79" s="9">
+      <c r="P79" s="10">
         <v>76.783000000000001</v>
       </c>
-      <c r="Q79" s="9">
+      <c r="Q79" s="10">
         <v>66.991500000000002</v>
       </c>
-      <c r="R79" s="9">
+      <c r="R79" s="10">
         <v>66.286999999999992</v>
       </c>
-      <c r="S79" s="9">
+      <c r="S79" s="10">
         <v>63.941499999999998</v>
       </c>
-      <c r="T79" s="9">
+      <c r="T79" s="10">
         <v>63.293500000000002</v>
       </c>
-      <c r="U79" s="9">
+      <c r="U79" s="10">
         <v>56.298500000000004</v>
       </c>
-      <c r="V79" s="9">
+      <c r="V79" s="10">
         <v>56.009</v>
       </c>
-      <c r="W79" s="9">
+      <c r="W79" s="10">
         <v>56.091999999999999</v>
       </c>
-      <c r="X79" s="9">
+      <c r="X79" s="10">
         <v>54.779000000000003</v>
       </c>
-      <c r="Y79" s="9">
+      <c r="Y79" s="10">
         <v>45.756999999999998</v>
       </c>
-      <c r="Z79" s="9">
+      <c r="Z79" s="10">
         <v>44.884</v>
       </c>
     </row>
@@ -5795,79 +5886,79 @@
       <c r="A80" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="10">
         <v>0.33</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="10">
         <v>0.45300000000000001</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="10">
         <v>0.63700000000000001</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="10">
         <v>0.86</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F80" s="10">
         <v>1.1319999999999999</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G80" s="10">
         <v>1.4219999999999999</v>
       </c>
-      <c r="H80" s="9">
+      <c r="H80" s="10">
         <v>1.708</v>
       </c>
-      <c r="I80" s="9">
+      <c r="I80" s="10">
         <v>1.919</v>
       </c>
-      <c r="J80" s="9">
+      <c r="J80" s="10">
         <v>2.1440000000000001</v>
       </c>
-      <c r="K80" s="9">
+      <c r="K80" s="10">
         <v>2.6269999999999998</v>
       </c>
-      <c r="L80" s="9">
+      <c r="L80" s="10">
         <v>3.6179999999999999</v>
       </c>
-      <c r="M80" s="9">
+      <c r="M80" s="10">
         <v>4.9139999999999997</v>
       </c>
-      <c r="N80" s="9">
+      <c r="N80" s="10">
         <v>6.6319999999999997</v>
       </c>
-      <c r="O80" s="9">
+      <c r="O80" s="10">
         <v>13.599</v>
       </c>
-      <c r="P80" s="9">
+      <c r="P80" s="10">
         <v>23.338999999999999</v>
       </c>
-      <c r="Q80" s="9">
+      <c r="Q80" s="10">
         <v>34.15</v>
       </c>
-      <c r="R80" s="9">
+      <c r="R80" s="10">
         <v>42.04</v>
       </c>
-      <c r="S80" s="9">
+      <c r="S80" s="10">
         <v>49.5</v>
       </c>
-      <c r="T80" s="9">
+      <c r="T80" s="10">
         <v>56.161999999999999</v>
       </c>
-      <c r="U80" s="9">
+      <c r="U80" s="10">
         <v>63.192</v>
       </c>
-      <c r="V80" s="9">
+      <c r="V80" s="10">
         <v>71.867999999999995</v>
       </c>
-      <c r="W80" s="9">
+      <c r="W80" s="10">
         <v>78.412999999999997</v>
       </c>
-      <c r="X80" s="9">
+      <c r="X80" s="10">
         <v>85.066000000000003</v>
       </c>
-      <c r="Y80" s="9">
+      <c r="Y80" s="10">
         <v>89.076999999999998</v>
       </c>
-      <c r="Z80" s="9">
+      <c r="Z80" s="10">
         <v>91.610332999999997</v>
       </c>
     </row>
@@ -5875,325 +5966,325 @@
       <c r="A81" t="s">
         <v>12</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81" s="10">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="10">
         <v>0.17499999999999999</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="10">
         <v>0.27700000000000002</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="10">
         <v>0.50800000000000001</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F81" s="10">
         <v>0.76899999999999991</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G81" s="10">
         <v>1.2270000000000001</v>
       </c>
-      <c r="H81" s="9">
+      <c r="H81" s="10">
         <v>1.8049999999999999</v>
       </c>
-      <c r="I81" s="9">
+      <c r="I81" s="10">
         <v>1.5270000000000001</v>
       </c>
-      <c r="J81" s="9">
+      <c r="J81" s="10">
         <v>1.756</v>
       </c>
-      <c r="K81" s="9">
+      <c r="K81" s="10">
         <v>1.9970000000000001</v>
       </c>
-      <c r="L81" s="9">
+      <c r="L81" s="10">
         <v>2.294</v>
       </c>
-      <c r="M81" s="9">
+      <c r="M81" s="10">
         <v>2.419</v>
       </c>
-      <c r="N81" s="9">
+      <c r="N81" s="10">
         <v>2.5619999999999998</v>
       </c>
-      <c r="O81" s="9">
+      <c r="O81" s="10">
         <v>2.6460000000000004</v>
       </c>
-      <c r="P81" s="9">
+      <c r="P81" s="10">
         <v>2.7530000000000001</v>
       </c>
-      <c r="Q81" s="9">
+      <c r="Q81" s="10">
         <v>2.8090000000000002</v>
       </c>
-      <c r="R81" s="9">
+      <c r="R81" s="10">
         <v>3.2050000000000001</v>
       </c>
-      <c r="S81" s="9">
+      <c r="S81" s="10">
         <v>3.4830000000000001</v>
       </c>
-      <c r="T81" s="9">
+      <c r="T81" s="10">
         <v>3.4979999999999998</v>
       </c>
-      <c r="U81" s="9">
+      <c r="U81" s="10">
         <v>3.952</v>
       </c>
-      <c r="V81" s="9">
+      <c r="V81" s="10">
         <v>4.12</v>
       </c>
-      <c r="W81" s="9">
+      <c r="W81" s="10">
         <v>4.2619999999999996</v>
       </c>
-      <c r="X81" s="9">
+      <c r="X81" s="10">
         <v>4.4830000000000005</v>
       </c>
-      <c r="Y81" s="9">
+      <c r="Y81" s="10">
         <v>5.343</v>
       </c>
-      <c r="Z81" s="9">
+      <c r="Z81" s="10">
         <v>5.8319999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="85" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A85" s="6" t="s">
-        <v>65</v>
+      <c r="A85" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A86" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B86" s="7" t="s">
+      <c r="A86" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="8">
         <v>2000</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="8">
         <v>2001</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="8">
         <v>2002</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="8">
         <v>2003</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G86" s="8">
         <v>2004</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H86" s="8">
         <v>2005</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86" s="8">
         <v>2006</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J86" s="8">
         <v>2007</v>
       </c>
-      <c r="K86" s="7">
+      <c r="K86" s="8">
         <v>2008</v>
       </c>
-      <c r="L86" s="7">
+      <c r="L86" s="8">
         <v>2009</v>
       </c>
-      <c r="M86" s="7">
+      <c r="M86" s="8">
         <v>2010</v>
       </c>
-      <c r="N86" s="7">
+      <c r="N86" s="8">
         <v>2011</v>
       </c>
-      <c r="O86" s="7">
+      <c r="O86" s="8">
         <v>2012</v>
       </c>
-      <c r="P86" s="7">
+      <c r="P86" s="8">
         <v>2013</v>
       </c>
-      <c r="Q86" s="7">
+      <c r="Q86" s="8">
         <v>2014</v>
       </c>
-      <c r="R86" s="7">
+      <c r="R86" s="8">
         <v>2015</v>
       </c>
-      <c r="S86" s="7">
+      <c r="S86" s="8">
         <v>2016</v>
       </c>
-      <c r="T86" s="7">
+      <c r="T86" s="8">
         <v>2017</v>
       </c>
-      <c r="U86" s="7">
+      <c r="U86" s="8">
         <v>2018</v>
       </c>
-      <c r="V86" s="7">
+      <c r="V86" s="8">
         <v>2019</v>
       </c>
-      <c r="W86" s="7">
+      <c r="W86" s="8">
         <v>2020</v>
       </c>
-      <c r="X86" s="7">
+      <c r="X86" s="8">
         <v>2021</v>
       </c>
-      <c r="Y86" s="7">
+      <c r="Y86" s="8">
         <v>2022</v>
       </c>
-      <c r="Z86" s="7">
+      <c r="Z86" s="8">
         <v>2023</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B87" t="s">
-        <v>68</v>
-      </c>
-      <c r="C87" s="9">
+        <v>74</v>
+      </c>
+      <c r="C87" s="10">
         <v>0</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="10">
         <v>0</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="10">
         <v>0</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F87" s="10">
         <v>0</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G87" s="10">
         <v>0</v>
       </c>
-      <c r="H87" s="9">
+      <c r="H87" s="10">
         <v>0</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I87" s="10">
         <v>0</v>
       </c>
-      <c r="J87" s="9">
+      <c r="J87" s="10">
         <v>0</v>
       </c>
-      <c r="K87" s="9">
+      <c r="K87" s="10">
         <v>0</v>
       </c>
-      <c r="L87" s="9">
+      <c r="L87" s="10">
         <v>0</v>
       </c>
-      <c r="M87" s="9">
+      <c r="M87" s="10">
         <v>0</v>
       </c>
-      <c r="N87" s="9">
+      <c r="N87" s="10">
         <v>0</v>
       </c>
-      <c r="O87" s="9">
+      <c r="O87" s="10">
         <v>0</v>
       </c>
-      <c r="P87" s="9">
+      <c r="P87" s="10">
         <v>0</v>
       </c>
-      <c r="Q87" s="9">
+      <c r="Q87" s="10">
         <v>0</v>
       </c>
-      <c r="R87" s="9">
+      <c r="R87" s="10">
         <v>0</v>
       </c>
-      <c r="S87" s="9">
+      <c r="S87" s="10">
         <v>0</v>
       </c>
-      <c r="T87" s="9">
+      <c r="T87" s="10">
         <v>0</v>
       </c>
-      <c r="U87" s="9">
+      <c r="U87" s="10">
         <v>0</v>
       </c>
-      <c r="V87" s="9">
+      <c r="V87" s="10">
         <v>0</v>
       </c>
-      <c r="W87" s="9">
+      <c r="W87" s="10">
         <v>0</v>
       </c>
-      <c r="X87" s="9">
+      <c r="X87" s="10">
         <v>0</v>
       </c>
-      <c r="Y87" s="9">
+      <c r="Y87" s="10">
         <v>0</v>
       </c>
-      <c r="Z87" s="9">
+      <c r="Z87" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
-      </c>
-      <c r="C88" s="9">
+        <v>75</v>
+      </c>
+      <c r="C88" s="10">
         <v>0</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="10">
         <v>0</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="10">
         <v>0</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F88" s="10">
         <v>0</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88" s="10">
         <v>0</v>
       </c>
-      <c r="H88" s="9">
+      <c r="H88" s="10">
         <v>0</v>
       </c>
-      <c r="I88" s="9">
+      <c r="I88" s="10">
         <v>0</v>
       </c>
-      <c r="J88" s="9">
+      <c r="J88" s="10">
         <v>0</v>
       </c>
-      <c r="K88" s="9">
+      <c r="K88" s="10">
         <v>0</v>
       </c>
-      <c r="L88" s="9">
+      <c r="L88" s="10">
         <v>0</v>
       </c>
-      <c r="M88" s="9">
+      <c r="M88" s="10">
         <v>0</v>
       </c>
-      <c r="N88" s="9">
+      <c r="N88" s="10">
         <v>0</v>
       </c>
-      <c r="O88" s="9">
+      <c r="O88" s="10">
         <v>0</v>
       </c>
-      <c r="P88" s="9">
+      <c r="P88" s="10">
         <v>0</v>
       </c>
-      <c r="Q88" s="9">
+      <c r="Q88" s="10">
         <v>0</v>
       </c>
-      <c r="R88" s="9">
+      <c r="R88" s="10">
         <v>0</v>
       </c>
-      <c r="S88" s="9">
+      <c r="S88" s="10">
         <v>0</v>
       </c>
-      <c r="T88" s="9">
+      <c r="T88" s="10">
         <v>0</v>
       </c>
-      <c r="U88" s="9">
+      <c r="U88" s="10">
         <v>0</v>
       </c>
-      <c r="V88" s="9">
+      <c r="V88" s="10">
         <v>0</v>
       </c>
-      <c r="W88" s="9">
+      <c r="W88" s="10">
         <v>0</v>
       </c>
-      <c r="X88" s="9">
+      <c r="X88" s="10">
         <v>0</v>
       </c>
-      <c r="Y88" s="9">
+      <c r="Y88" s="10">
         <v>0</v>
       </c>
-      <c r="Z88" s="9">
+      <c r="Z88" s="10">
         <v>0</v>
       </c>
     </row>

--- a/VerveStacks_JPN/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_JPN/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FB331A-DED1-4053-8328-6E833D957F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13456A0C-C731-459D-A9A1-0F77D32C8267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_JPN/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_JPN/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13456A0C-C731-459D-A9A1-0F77D32C8267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEB4FDB-9A03-4F58-9192-832CC7ABEB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_JPN/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_JPN/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E8862F-7017-43C8-828F-F3D671234D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3586E9A2-23D4-432E-8FF3-393DA40EA759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_JPN/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_JPN/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17722557-3E15-4E07-9FCB-FE6CD965E239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30FC362B-399C-4F23-8FDC-3975CF75F6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,7 +616,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40AECD8-37F0-9ECC-C840-71B54D751148}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A070D9-D909-6967-EF6E-630B423DAA85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_JPN/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_JPN/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30FC362B-399C-4F23-8FDC-3975CF75F6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75AC385B-F90B-4318-99BE-FFB24844ED7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,7 +616,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A070D9-D909-6967-EF6E-630B423DAA85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359B6B34-A0CF-85AE-E4DA-43E296E75C16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_JPN/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_JPN/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5A19E58-8621-4EC3-906B-594D6AC988C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30FF926D-D106-4584-A6A5-0F53E56D6EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -836,9 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -878,7 +876,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AD1">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.45">
@@ -1153,7 +1151,7 @@
       </c>
       <c r="AJ8">
         <f>AI8*$AD$1</f>
-        <v>0.60670453679555791</v>
+        <v>0.13482323039901287</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -1221,7 +1219,7 @@
       </c>
       <c r="AJ9">
         <f>AI9*$AD$1</f>
-        <v>0.41841027726824787</v>
+        <v>9.2980061615166198E-2</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -1596,7 +1594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320A1887-1B0C-44A8-9658-90FD86FEE0A5}">
   <dimension ref="A9:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
